--- a/tests/Data/Disks/Local/import-users.xlsx
+++ b/tests/Data/Disks/Local/import-users.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
